--- a/results/SupplementryTable3.xlsx
+++ b/results/SupplementryTable3.xlsx
@@ -9326,7 +9326,7 @@
         </is>
       </c>
       <c r="C598">
-        <v>-0.4838121793149342</v>
+        <v>-0.4838121793149343</v>
       </c>
     </row>
     <row r="599">
